--- a/FinalProject/Data/DataClean/SOC5800_Data_QualitativeAnalysis.xlsx
+++ b/FinalProject/Data/DataClean/SOC5800_Data_QualitativeAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="698" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="698" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Q38" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="Q40 Coder 1" sheetId="11" r:id="rId8"/>
     <sheet name="Q40 Coder 2" sheetId="12" r:id="rId9"/>
     <sheet name="Q41" sheetId="4" r:id="rId10"/>
-    <sheet name="Coding Guidelines" sheetId="5" r:id="rId11"/>
+    <sheet name="Q41 Coder 1" sheetId="13" r:id="rId11"/>
+    <sheet name="Q41 Coder 2" sheetId="14" r:id="rId12"/>
+    <sheet name="Coding Guidelines" sheetId="5" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="codesQ38" localSheetId="1">Table1[Q38 Codes]</definedName>
@@ -31,15 +33,23 @@
     <definedName name="codesQ38" localSheetId="5">Table1[Q38 Codes]</definedName>
     <definedName name="codesQ38" localSheetId="7">Table1[Q38 Codes]</definedName>
     <definedName name="codesQ38" localSheetId="8">Table1[Q38 Codes]</definedName>
+    <definedName name="codesQ38" localSheetId="10">Table1[Q38 Codes]</definedName>
+    <definedName name="codesQ38" localSheetId="11">Table1[Q38 Codes]</definedName>
     <definedName name="codesQ38">Table1[Q38 Codes]</definedName>
     <definedName name="codesQ39" localSheetId="7">Table2[Q39 Codes]</definedName>
     <definedName name="codesQ39" localSheetId="8">Table2[Q39 Codes]</definedName>
+    <definedName name="codesQ39" localSheetId="10">Table2[Q39 Codes]</definedName>
+    <definedName name="codesQ39" localSheetId="11">Table2[Q39 Codes]</definedName>
     <definedName name="codesQ39">Table2[Q39 Codes]</definedName>
     <definedName name="codesQ40" localSheetId="7">Table3[Q40 Codes]</definedName>
     <definedName name="codesQ40" localSheetId="8">Table3[Q40 Codes]</definedName>
+    <definedName name="codesQ40" localSheetId="10">Table3[Q40 Codes]</definedName>
+    <definedName name="codesQ40" localSheetId="11">Table3[Q40 Codes]</definedName>
     <definedName name="codesQ40">Table3[Q40 Codes]</definedName>
     <definedName name="codesQ41" localSheetId="7">Table4[Q41 Codes]</definedName>
     <definedName name="codesQ41" localSheetId="8">Table4[Q41 Codes]</definedName>
+    <definedName name="codesQ41" localSheetId="10">Table4[Q41 Codes]</definedName>
+    <definedName name="codesQ41" localSheetId="11">Table4[Q41 Codes]</definedName>
     <definedName name="codesQ41">Table4[Q41 Codes]</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="324">
   <si>
     <t>responseID</t>
   </si>
@@ -944,9 +954,6 @@
     <t>Received no help</t>
   </si>
   <si>
-    <t>Did not answer</t>
-  </si>
-  <si>
     <t>Counseling and clinical</t>
   </si>
   <si>
@@ -1029,6 +1036,9 @@
   </si>
   <si>
     <t>NG</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
 </sst>
 </file>
@@ -2920,7 +2930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,11 +2947,13 @@
       <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>263</v>
+      <c r="C1" s="12" t="str">
+        <f>'Q41 Coder 1'!$C1</f>
+        <v>DF</v>
+      </c>
+      <c r="D1" s="12" t="str">
+        <f>'Q41 Coder 2'!$C1</f>
+        <v>Coder 2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>264</v>
@@ -2949,9 +2961,9 @@
       <c r="G1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="7" t="str">
+      <c r="H1" s="7">
         <f>IF(COUNTA($C$2:$C$60)=COUNTA($D$2:$D$60),IF(COUNTA($C$2:$C$60)&gt;0,SUM($E$2:$E$60)/COUNTA($E$2:$E$60),""),"")</f>
-        <v/>
+        <v>0.88135593220338981</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2961,11 +2973,17 @@
       <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="4" t="str">
+      <c r="C2" s="13" t="str">
+        <f>'Q41 Coder 1'!$C2</f>
+        <v>PS</v>
+      </c>
+      <c r="D2" s="13" t="str">
+        <f>'Q41 Coder 2'!$C2</f>
+        <v>PS</v>
+      </c>
+      <c r="E2" s="4">
         <f>IF(COUNTBLANK(C2:D2)&gt;0,"",IF(C2=D2,1,0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,11 +2993,17 @@
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="str">
+      <c r="C3" s="13" t="str">
+        <f>'Q41 Coder 1'!$C3</f>
+        <v>UN</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>'Q41 Coder 2'!$C3</f>
+        <v>UN</v>
+      </c>
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E60" si="0">IF(COUNTBLANK(C3:D3)&gt;0,"",IF(C3=D3,1,0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2989,11 +3013,17 @@
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C4" s="13" t="str">
+        <f>'Q41 Coder 1'!$C4</f>
+        <v>UN</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>'Q41 Coder 2'!$C4</f>
+        <v>UN</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3003,11 +3033,17 @@
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C5" s="13" t="str">
+        <f>'Q41 Coder 1'!$C5</f>
+        <v>NG</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f>'Q41 Coder 2'!$C5</f>
+        <v>NG</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,11 +3053,17 @@
       <c r="B6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C6" s="13" t="str">
+        <f>'Q41 Coder 1'!$C6</f>
+        <v>NG</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>'Q41 Coder 2'!$C6</f>
+        <v>NG</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3031,11 +3073,17 @@
       <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C7" s="13" t="str">
+        <f>'Q41 Coder 1'!$C7</f>
+        <v>NG</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>'Q41 Coder 2'!$C7</f>
+        <v>NG</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3045,11 +3093,17 @@
       <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C8" s="13" t="str">
+        <f>'Q41 Coder 1'!$C8</f>
+        <v>UN</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>'Q41 Coder 2'!$C8</f>
+        <v>UN</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3059,11 +3113,17 @@
       <c r="B9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C9" s="13" t="str">
+        <f>'Q41 Coder 1'!$C9</f>
+        <v>PS</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>'Q41 Coder 2'!$C9</f>
+        <v>PS</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,11 +3133,17 @@
       <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C10" s="13" t="str">
+        <f>'Q41 Coder 1'!$C10</f>
+        <v>PS</v>
+      </c>
+      <c r="D10" s="13" t="str">
+        <f>'Q41 Coder 2'!$C10</f>
+        <v>PS</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,11 +3153,17 @@
       <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C11" s="13" t="str">
+        <f>'Q41 Coder 1'!$C11</f>
+        <v>NG</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>'Q41 Coder 2'!$C11</f>
+        <v>NG</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3101,11 +3173,17 @@
       <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C12" s="13" t="str">
+        <f>'Q41 Coder 1'!$C12</f>
+        <v>UN</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f>'Q41 Coder 2'!$C12</f>
+        <v>UN</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3115,11 +3193,17 @@
       <c r="B13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C13" s="13" t="str">
+        <f>'Q41 Coder 1'!$C13</f>
+        <v>NG</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f>'Q41 Coder 2'!$C13</f>
+        <v>NG</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,11 +3213,17 @@
       <c r="B14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C14" s="13" t="str">
+        <f>'Q41 Coder 1'!$C14</f>
+        <v>PS</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>'Q41 Coder 2'!$C14</f>
+        <v>PS</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3143,11 +3233,17 @@
       <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C15" s="13" t="str">
+        <f>'Q41 Coder 1'!$C15</f>
+        <v>NG</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>'Q41 Coder 2'!$C15</f>
+        <v>NG</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,11 +3253,17 @@
       <c r="B16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C16" s="13" t="str">
+        <f>'Q41 Coder 1'!$C16</f>
+        <v>NG</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>'Q41 Coder 2'!$C16</f>
+        <v>NO</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3171,11 +3273,17 @@
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C17" s="13" t="str">
+        <f>'Q41 Coder 1'!$C17</f>
+        <v>NO</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>'Q41 Coder 2'!$C17</f>
+        <v>NO</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,11 +3293,17 @@
       <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C18" s="13" t="str">
+        <f>'Q41 Coder 1'!$C18</f>
+        <v>NO</v>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f>'Q41 Coder 2'!$C18</f>
+        <v>NO</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3199,11 +3313,17 @@
       <c r="B19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C19" s="13" t="str">
+        <f>'Q41 Coder 1'!$C19</f>
+        <v>NO</v>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f>'Q41 Coder 2'!$C19</f>
+        <v>NO</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,11 +3333,17 @@
       <c r="B20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C20" s="13" t="str">
+        <f>'Q41 Coder 1'!$C20</f>
+        <v>UN</v>
+      </c>
+      <c r="D20" s="13" t="str">
+        <f>'Q41 Coder 2'!$C20</f>
+        <v>UN</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,11 +3353,17 @@
       <c r="B21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C21" s="13" t="str">
+        <f>'Q41 Coder 1'!$C21</f>
+        <v>UN</v>
+      </c>
+      <c r="D21" s="13" t="str">
+        <f>'Q41 Coder 2'!$C21</f>
+        <v>UN</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -3241,11 +3373,17 @@
       <c r="B22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C22" s="13" t="str">
+        <f>'Q41 Coder 1'!$C22</f>
+        <v>NG</v>
+      </c>
+      <c r="D22" s="13" t="str">
+        <f>'Q41 Coder 2'!$C22</f>
+        <v>NG</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,11 +3393,17 @@
       <c r="B23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C23" s="13" t="str">
+        <f>'Q41 Coder 1'!$C23</f>
+        <v>NG</v>
+      </c>
+      <c r="D23" s="13" t="str">
+        <f>'Q41 Coder 2'!$C23</f>
+        <v>NG</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,11 +3413,17 @@
       <c r="B24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C24" s="13" t="str">
+        <f>'Q41 Coder 1'!$C24</f>
+        <v>NO</v>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f>'Q41 Coder 2'!$C24</f>
+        <v>NO</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,11 +3433,17 @@
       <c r="B25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C25" s="13" t="str">
+        <f>'Q41 Coder 1'!$C25</f>
+        <v>NR</v>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f>'Q41 Coder 2'!$C25</f>
+        <v>NR</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,11 +3453,17 @@
       <c r="B26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C26" s="13" t="str">
+        <f>'Q41 Coder 1'!$C26</f>
+        <v>NG</v>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f>'Q41 Coder 2'!$C26</f>
+        <v>NG</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3311,11 +3473,17 @@
       <c r="B27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C27" s="13" t="str">
+        <f>'Q41 Coder 1'!$C27</f>
+        <v>UN</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f>'Q41 Coder 2'!$C27</f>
+        <v>UN</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,11 +3493,17 @@
       <c r="B28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C28" s="13" t="str">
+        <f>'Q41 Coder 1'!$C28</f>
+        <v>NG</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f>'Q41 Coder 2'!$C28</f>
+        <v>NG</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,11 +3513,17 @@
       <c r="B29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C29" s="13" t="str">
+        <f>'Q41 Coder 1'!$C29</f>
+        <v>UN</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f>'Q41 Coder 2'!$C29</f>
+        <v>UN</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,11 +3533,17 @@
       <c r="B30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C30" s="13" t="str">
+        <f>'Q41 Coder 1'!$C30</f>
+        <v>NG</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f>'Q41 Coder 2'!$C30</f>
+        <v>NG</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3367,11 +3553,17 @@
       <c r="B31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C31" s="13" t="str">
+        <f>'Q41 Coder 1'!$C31</f>
+        <v>NO</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>'Q41 Coder 2'!$C31</f>
+        <v>NO</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,11 +3573,17 @@
       <c r="B32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C32" s="13" t="str">
+        <f>'Q41 Coder 1'!$C32</f>
+        <v>NG</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>'Q41 Coder 2'!$C32</f>
+        <v>NG</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3395,11 +3593,17 @@
       <c r="B33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C33" s="13" t="str">
+        <f>'Q41 Coder 1'!$C33</f>
+        <v>PS</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>'Q41 Coder 2'!$C33</f>
+        <v>PS</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,11 +3613,17 @@
       <c r="B34" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C34" s="13" t="str">
+        <f>'Q41 Coder 1'!$C34</f>
+        <v>NG</v>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f>'Q41 Coder 2'!$C34</f>
+        <v>NO</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,11 +3633,17 @@
       <c r="B35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C35" s="13" t="str">
+        <f>'Q41 Coder 1'!$C35</f>
+        <v>NG</v>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f>'Q41 Coder 2'!$C35</f>
+        <v>NG</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3437,11 +3653,17 @@
       <c r="B36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C36" s="13" t="str">
+        <f>'Q41 Coder 1'!$C36</f>
+        <v>NG</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>'Q41 Coder 2'!$C36</f>
+        <v>NG</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3451,11 +3673,17 @@
       <c r="B37" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C37" s="13" t="str">
+        <f>'Q41 Coder 1'!$C37</f>
+        <v>NO</v>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f>'Q41 Coder 2'!$C37</f>
+        <v>NO</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,11 +3693,17 @@
       <c r="B38" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C38" s="13" t="str">
+        <f>'Q41 Coder 1'!$C38</f>
+        <v>NO</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>'Q41 Coder 2'!$C38</f>
+        <v>NO</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,11 +3713,17 @@
       <c r="B39" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C39" s="13" t="str">
+        <f>'Q41 Coder 1'!$C39</f>
+        <v>NO</v>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f>'Q41 Coder 2'!$C39</f>
+        <v>NO</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3493,11 +3733,17 @@
       <c r="B40" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C40" s="13" t="str">
+        <f>'Q41 Coder 1'!$C40</f>
+        <v>PS</v>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f>'Q41 Coder 2'!$C40</f>
+        <v>PS</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,11 +3753,17 @@
       <c r="B41" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C41" s="13" t="str">
+        <f>'Q41 Coder 1'!$C41</f>
+        <v>PS</v>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f>'Q41 Coder 2'!$C41</f>
+        <v>PS</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,11 +3773,17 @@
       <c r="B42" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C42" s="13" t="str">
+        <f>'Q41 Coder 1'!$C42</f>
+        <v>NO</v>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f>'Q41 Coder 2'!$C42</f>
+        <v>NO</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,11 +3793,17 @@
       <c r="B43" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C43" s="13" t="str">
+        <f>'Q41 Coder 1'!$C43</f>
+        <v>PS</v>
+      </c>
+      <c r="D43" s="13" t="str">
+        <f>'Q41 Coder 2'!$C43</f>
+        <v>PS</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3549,11 +3813,17 @@
       <c r="B44" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C44" s="13" t="str">
+        <f>'Q41 Coder 1'!$C44</f>
+        <v>NO</v>
+      </c>
+      <c r="D44" s="13" t="str">
+        <f>'Q41 Coder 2'!$C44</f>
+        <v>NO</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,11 +3833,17 @@
       <c r="B45" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C45" s="13" t="str">
+        <f>'Q41 Coder 1'!$C45</f>
+        <v>NO</v>
+      </c>
+      <c r="D45" s="13" t="str">
+        <f>'Q41 Coder 2'!$C45</f>
+        <v>UN</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,11 +3853,17 @@
       <c r="B46" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C46" s="13" t="str">
+        <f>'Q41 Coder 1'!$C46</f>
+        <v>NG</v>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f>'Q41 Coder 2'!$C46</f>
+        <v>UN</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,11 +3873,17 @@
       <c r="B47" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C47" s="13" t="str">
+        <f>'Q41 Coder 1'!$C47</f>
+        <v>UN</v>
+      </c>
+      <c r="D47" s="13" t="str">
+        <f>'Q41 Coder 2'!$C47</f>
+        <v>UN</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3605,11 +3893,17 @@
       <c r="B48" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C48" s="13" t="str">
+        <f>'Q41 Coder 1'!$C48</f>
+        <v>NO</v>
+      </c>
+      <c r="D48" s="13" t="str">
+        <f>'Q41 Coder 2'!$C48</f>
+        <v>UN</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3619,11 +3913,17 @@
       <c r="B49" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C49" s="13" t="str">
+        <f>'Q41 Coder 1'!$C49</f>
+        <v>NG</v>
+      </c>
+      <c r="D49" s="13" t="str">
+        <f>'Q41 Coder 2'!$C49</f>
+        <v>UN</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,11 +3933,17 @@
       <c r="B50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C50" s="13" t="str">
+        <f>'Q41 Coder 1'!$C50</f>
+        <v>NR</v>
+      </c>
+      <c r="D50" s="13" t="str">
+        <f>'Q41 Coder 2'!$C50</f>
+        <v>NR</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,11 +3953,17 @@
       <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C51" s="13" t="str">
+        <f>'Q41 Coder 1'!$C51</f>
+        <v>NR</v>
+      </c>
+      <c r="D51" s="13" t="str">
+        <f>'Q41 Coder 2'!$C51</f>
+        <v>NR</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,11 +3973,17 @@
       <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C52" s="13" t="str">
+        <f>'Q41 Coder 1'!$C52</f>
+        <v>NR</v>
+      </c>
+      <c r="D52" s="13" t="str">
+        <f>'Q41 Coder 2'!$C52</f>
+        <v>NR</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,11 +3993,17 @@
       <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C53" s="13" t="str">
+        <f>'Q41 Coder 1'!$C53</f>
+        <v>NR</v>
+      </c>
+      <c r="D53" s="13" t="str">
+        <f>'Q41 Coder 2'!$C53</f>
+        <v>NR</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3689,11 +4013,17 @@
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C54" s="13" t="str">
+        <f>'Q41 Coder 1'!$C54</f>
+        <v>NR</v>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f>'Q41 Coder 2'!$C54</f>
+        <v>NR</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,11 +4033,17 @@
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C55" s="13" t="str">
+        <f>'Q41 Coder 1'!$C55</f>
+        <v>NR</v>
+      </c>
+      <c r="D55" s="13" t="str">
+        <f>'Q41 Coder 2'!$C55</f>
+        <v>NR</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,11 +4053,17 @@
       <c r="B56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C56" s="13" t="str">
+        <f>'Q41 Coder 1'!$C56</f>
+        <v>NR</v>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f>'Q41 Coder 2'!$C56</f>
+        <v>NR</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,11 +4073,17 @@
       <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C57" s="13" t="str">
+        <f>'Q41 Coder 1'!$C57</f>
+        <v>NR</v>
+      </c>
+      <c r="D57" s="13" t="str">
+        <f>'Q41 Coder 2'!$C57</f>
+        <v>NR</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,11 +4093,17 @@
       <c r="B58" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C58" s="13" t="str">
+        <f>'Q41 Coder 1'!$C58</f>
+        <v>NO</v>
+      </c>
+      <c r="D58" s="13" t="str">
+        <f>'Q41 Coder 2'!$C58</f>
+        <v>UN</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,11 +4113,17 @@
       <c r="B59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C59" s="13" t="str">
+        <f>'Q41 Coder 1'!$C59</f>
+        <v>NR</v>
+      </c>
+      <c r="D59" s="13" t="str">
+        <f>'Q41 Coder 2'!$C59</f>
+        <v>NR</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,11 +4133,17 @@
       <c r="B60" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C60" s="13" t="str">
+        <f>'Q41 Coder 1'!$C60</f>
+        <v>UN</v>
+      </c>
+      <c r="D60" s="13" t="str">
+        <f>'Q41 Coder 2'!$C60</f>
+        <v>UN</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3789,10 +4155,1389 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C60">
+      <formula1>codesQ41</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>codesQ41</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C60">
+      <formula1>codesQ41</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -3825,7 +5570,7 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>266</v>
@@ -3842,7 +5587,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>269</v>
@@ -3856,7 +5601,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>271</v>
@@ -3870,7 +5615,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>273</v>
@@ -3884,7 +5629,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>275</v>
@@ -3898,7 +5643,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>277</v>
@@ -3909,7 +5654,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>286</v>
@@ -3917,18 +5662,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3991,7 +5736,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>288</v>
@@ -3999,15 +5744,15 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>290</v>
@@ -4015,7 +5760,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>291</v>
@@ -4023,7 +5768,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>289</v>
@@ -4031,7 +5776,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>293</v>
@@ -4039,7 +5784,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>292</v>
@@ -4047,7 +5792,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>294</v>
@@ -4055,18 +5800,18 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,42 +5839,42 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4168,7 +5913,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4179,7 +5924,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4190,7 +5935,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -4201,7 +5946,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,7 +5957,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,7 +5968,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,7 +5979,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,7 +5990,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,7 +6001,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,7 +6012,7 @@
         <v>96</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,7 +6023,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +6034,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,7 +6045,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +6056,7 @@
         <v>112</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,7 +6067,7 @@
         <v>116</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4333,7 +6078,7 @@
         <v>120</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4344,7 +6089,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4355,7 +6100,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4366,7 +6111,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +6122,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4388,7 +6133,7 @@
         <v>140</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4399,7 +6144,7 @@
         <v>144</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,7 +6155,7 @@
         <v>148</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4421,7 +6166,7 @@
         <v>152</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4432,7 +6177,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4443,7 +6188,7 @@
         <v>160</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,7 +6199,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4465,7 +6210,7 @@
         <v>168</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4476,7 +6221,7 @@
         <v>172</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,7 +6232,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4498,7 +6243,7 @@
         <v>180</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,7 +6254,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4520,7 +6265,7 @@
         <v>188</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4531,7 +6276,7 @@
         <v>192</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4542,7 +6287,7 @@
         <v>196</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4553,7 +6298,7 @@
         <v>200</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4564,7 +6309,7 @@
         <v>204</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4575,7 +6320,7 @@
         <v>208</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4586,7 +6331,7 @@
         <v>212</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4597,7 +6342,7 @@
         <v>216</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4608,7 +6353,7 @@
         <v>220</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4619,7 +6364,7 @@
         <v>224</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4630,7 +6375,7 @@
         <v>227</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4641,7 +6386,7 @@
         <v>230</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4652,7 +6397,7 @@
         <v>233</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4663,7 +6408,7 @@
         <v>237</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4674,7 +6419,7 @@
         <v>240</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4685,7 +6430,7 @@
         <v>244</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4696,7 +6441,7 @@
         <v>248</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4707,7 +6452,7 @@
         <v>159</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4718,7 +6463,7 @@
         <v>159</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4729,7 +6474,7 @@
         <v>159</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4740,7 +6485,7 @@
         <v>159</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4751,7 +6496,7 @@
         <v>159</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4762,7 +6507,7 @@
         <v>252</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4773,7 +6518,7 @@
         <v>159</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4784,7 +6529,7 @@
         <v>159</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4795,7 +6540,7 @@
         <v>255</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4806,7 +6551,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4817,7 +6562,7 @@
         <v>258</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +6602,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,7 +6613,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,7 +6624,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -4890,7 +6635,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,7 +6646,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,7 +6668,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,7 +6679,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,7 +6690,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,7 +6701,7 @@
         <v>96</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,7 +6712,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,7 +6723,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +6734,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,7 +6745,7 @@
         <v>112</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,7 +6756,7 @@
         <v>116</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5022,7 +6767,7 @@
         <v>120</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,7 +6778,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,7 +6789,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5055,7 +6800,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,7 +6811,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,7 +6822,7 @@
         <v>140</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5088,7 +6833,7 @@
         <v>144</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,7 +6844,7 @@
         <v>148</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,7 +6855,7 @@
         <v>152</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,7 +6866,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5132,7 +6877,7 @@
         <v>160</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5143,7 +6888,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,7 +6899,7 @@
         <v>168</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,7 +6910,7 @@
         <v>172</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,7 +6921,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5187,7 +6932,7 @@
         <v>180</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,7 +6943,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5209,7 +6954,7 @@
         <v>188</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,7 +6965,7 @@
         <v>192</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,7 +6976,7 @@
         <v>196</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,7 +6987,7 @@
         <v>200</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,7 +6998,7 @@
         <v>204</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,7 +7009,7 @@
         <v>208</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5275,7 +7020,7 @@
         <v>212</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5286,7 +7031,7 @@
         <v>216</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,7 +7042,7 @@
         <v>220</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5308,7 +7053,7 @@
         <v>224</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,7 +7064,7 @@
         <v>227</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,7 +7075,7 @@
         <v>230</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5341,7 +7086,7 @@
         <v>233</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5352,7 +7097,7 @@
         <v>237</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,7 +7108,7 @@
         <v>240</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5374,7 +7119,7 @@
         <v>244</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,7 +7130,7 @@
         <v>248</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,7 +7141,7 @@
         <v>159</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,7 +7152,7 @@
         <v>159</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5418,7 +7163,7 @@
         <v>159</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5429,7 +7174,7 @@
         <v>159</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,7 +7185,7 @@
         <v>159</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5451,7 +7196,7 @@
         <v>252</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,7 +7207,7 @@
         <v>159</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,7 +7218,7 @@
         <v>159</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,7 +7229,7 @@
         <v>255</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,7 +7240,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,7 +7251,7 @@
         <v>258</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7932,7 +9677,7 @@
       </c>
       <c r="H1" s="7">
         <f>IF(COUNTA($C$2:$C$60)=COUNTA($D$2:$D$60),IF(COUNTA($C$2:$C$60)&gt;0,SUM($E$2:$E$60)/COUNTA($E$2:$E$60),""),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7942,9 +9687,9 @@
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="13" t="str">
         <f>'Q40 Coder 1'!$C2</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D2" s="13">
         <f>'Q40 Coder 2'!$C2</f>
@@ -7952,7 +9697,7 @@
       </c>
       <c r="E2" s="4">
         <f>IF(COUNTBLANK(C2:D2)&gt;0,"",IF(C2=D2,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7962,9 +9707,9 @@
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="13" t="str">
         <f>'Q40 Coder 1'!$C3</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D3" s="13">
         <f>'Q40 Coder 2'!$C3</f>
@@ -7972,7 +9717,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E60" si="0">IF(COUNTBLANK(C3:D3)&gt;0,"",IF(C3=D3,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7982,9 +9727,9 @@
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="13" t="str">
         <f>'Q40 Coder 1'!$C4</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D4" s="13">
         <f>'Q40 Coder 2'!$C4</f>
@@ -7992,7 +9737,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8002,9 +9747,9 @@
       <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="13" t="str">
         <f>'Q40 Coder 1'!$C5</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D5" s="13">
         <f>'Q40 Coder 2'!$C5</f>
@@ -8012,7 +9757,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,9 +9767,9 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="13" t="str">
         <f>'Q40 Coder 1'!$C6</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D6" s="13">
         <f>'Q40 Coder 2'!$C6</f>
@@ -8032,7 +9777,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8042,9 +9787,9 @@
       <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="str">
         <f>'Q40 Coder 1'!$C7</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D7" s="13">
         <f>'Q40 Coder 2'!$C7</f>
@@ -8052,7 +9797,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8062,9 +9807,9 @@
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="str">
         <f>'Q40 Coder 1'!$C8</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D8" s="13">
         <f>'Q40 Coder 2'!$C8</f>
@@ -8072,7 +9817,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8082,9 +9827,9 @@
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="13" t="str">
         <f>'Q40 Coder 1'!$C9</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D9" s="13">
         <f>'Q40 Coder 2'!$C9</f>
@@ -8092,7 +9837,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8102,9 +9847,9 @@
       <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="13" t="str">
         <f>'Q40 Coder 1'!$C10</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D10" s="13">
         <f>'Q40 Coder 2'!$C10</f>
@@ -8112,7 +9857,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,9 +9867,9 @@
       <c r="B11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="13" t="str">
         <f>'Q40 Coder 1'!$C11</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D11" s="13">
         <f>'Q40 Coder 2'!$C11</f>
@@ -8132,7 +9877,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8142,9 +9887,9 @@
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="13" t="str">
         <f>'Q40 Coder 1'!$C12</f>
-        <v>0</v>
+        <v>OP</v>
       </c>
       <c r="D12" s="13">
         <f>'Q40 Coder 2'!$C12</f>
@@ -8152,7 +9897,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8162,9 +9907,9 @@
       <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="13" t="str">
         <f>'Q40 Coder 1'!$C13</f>
-        <v>0</v>
+        <v>FA</v>
       </c>
       <c r="D13" s="13">
         <f>'Q40 Coder 2'!$C13</f>
@@ -8172,7 +9917,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,9 +9927,9 @@
       <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="13" t="str">
         <f>'Q40 Coder 1'!$C14</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D14" s="13">
         <f>'Q40 Coder 2'!$C14</f>
@@ -8192,7 +9937,7 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8202,9 +9947,9 @@
       <c r="B15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="13" t="str">
         <f>'Q40 Coder 1'!$C15</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D15" s="13">
         <f>'Q40 Coder 2'!$C15</f>
@@ -8212,7 +9957,7 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8222,9 +9967,9 @@
       <c r="B16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="13" t="str">
         <f>'Q40 Coder 1'!$C16</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D16" s="13">
         <f>'Q40 Coder 2'!$C16</f>
@@ -8232,7 +9977,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8242,9 +9987,9 @@
       <c r="B17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="13" t="str">
         <f>'Q40 Coder 1'!$C17</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D17" s="13">
         <f>'Q40 Coder 2'!$C17</f>
@@ -8252,7 +9997,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8262,9 +10007,9 @@
       <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="13" t="str">
         <f>'Q40 Coder 1'!$C18</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D18" s="13">
         <f>'Q40 Coder 2'!$C18</f>
@@ -8272,7 +10017,7 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,9 +10027,9 @@
       <c r="B19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="13" t="str">
         <f>'Q40 Coder 1'!$C19</f>
-        <v>0</v>
+        <v>PR</v>
       </c>
       <c r="D19" s="13">
         <f>'Q40 Coder 2'!$C19</f>
@@ -8292,7 +10037,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8302,9 +10047,9 @@
       <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="13" t="str">
         <f>'Q40 Coder 1'!$C20</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D20" s="13">
         <f>'Q40 Coder 2'!$C20</f>
@@ -8312,7 +10057,7 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8322,9 +10067,9 @@
       <c r="B21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="13" t="str">
         <f>'Q40 Coder 1'!$C21</f>
-        <v>0</v>
+        <v>FN</v>
       </c>
       <c r="D21" s="13">
         <f>'Q40 Coder 2'!$C21</f>
@@ -8332,7 +10077,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8342,9 +10087,9 @@
       <c r="B22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="13" t="str">
         <f>'Q40 Coder 1'!$C22</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D22" s="13">
         <f>'Q40 Coder 2'!$C22</f>
@@ -8352,7 +10097,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8362,9 +10107,9 @@
       <c r="B23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="13" t="str">
         <f>'Q40 Coder 1'!$C23</f>
-        <v>0</v>
+        <v>CC</v>
       </c>
       <c r="D23" s="13">
         <f>'Q40 Coder 2'!$C23</f>
@@ -8372,7 +10117,7 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8382,9 +10127,9 @@
       <c r="B24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="13" t="str">
         <f>'Q40 Coder 1'!$C24</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D24" s="13">
         <f>'Q40 Coder 2'!$C24</f>
@@ -8392,7 +10137,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8402,9 +10147,9 @@
       <c r="B25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="13" t="str">
         <f>'Q40 Coder 1'!$C25</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D25" s="13">
         <f>'Q40 Coder 2'!$C25</f>
@@ -8412,7 +10157,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8422,9 +10167,9 @@
       <c r="B26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="13" t="str">
         <f>'Q40 Coder 1'!$C26</f>
-        <v>0</v>
+        <v>FN</v>
       </c>
       <c r="D26" s="13">
         <f>'Q40 Coder 2'!$C26</f>
@@ -8432,7 +10177,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8442,9 +10187,9 @@
       <c r="B27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="13" t="str">
         <f>'Q40 Coder 1'!$C27</f>
-        <v>0</v>
+        <v>FN</v>
       </c>
       <c r="D27" s="13">
         <f>'Q40 Coder 2'!$C27</f>
@@ -8452,7 +10197,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8462,9 +10207,9 @@
       <c r="B28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="13" t="str">
         <f>'Q40 Coder 1'!$C28</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D28" s="13">
         <f>'Q40 Coder 2'!$C28</f>
@@ -8472,7 +10217,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8482,9 +10227,9 @@
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="13" t="str">
         <f>'Q40 Coder 1'!$C29</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D29" s="13">
         <f>'Q40 Coder 2'!$C29</f>
@@ -8492,7 +10237,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8502,9 +10247,9 @@
       <c r="B30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="13" t="str">
         <f>'Q40 Coder 1'!$C30</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D30" s="13">
         <f>'Q40 Coder 2'!$C30</f>
@@ -8512,7 +10257,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,9 +10267,9 @@
       <c r="B31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="13" t="str">
         <f>'Q40 Coder 1'!$C31</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D31" s="13">
         <f>'Q40 Coder 2'!$C31</f>
@@ -8532,7 +10277,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8542,9 +10287,9 @@
       <c r="B32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="13" t="str">
         <f>'Q40 Coder 1'!$C32</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D32" s="13">
         <f>'Q40 Coder 2'!$C32</f>
@@ -8552,7 +10297,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8562,9 +10307,9 @@
       <c r="B33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="13" t="str">
         <f>'Q40 Coder 1'!$C33</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D33" s="13">
         <f>'Q40 Coder 2'!$C33</f>
@@ -8572,7 +10317,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8582,9 +10327,9 @@
       <c r="B34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="13" t="str">
         <f>'Q40 Coder 1'!$C34</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D34" s="13">
         <f>'Q40 Coder 2'!$C34</f>
@@ -8592,7 +10337,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8602,9 +10347,9 @@
       <c r="B35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="13" t="str">
         <f>'Q40 Coder 1'!$C35</f>
-        <v>0</v>
+        <v>OP</v>
       </c>
       <c r="D35" s="13">
         <f>'Q40 Coder 2'!$C35</f>
@@ -8612,7 +10357,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8622,9 +10367,9 @@
       <c r="B36" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="13" t="str">
         <f>'Q40 Coder 1'!$C36</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D36" s="13">
         <f>'Q40 Coder 2'!$C36</f>
@@ -8632,7 +10377,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8642,9 +10387,9 @@
       <c r="B37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="13" t="str">
         <f>'Q40 Coder 1'!$C37</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D37" s="13">
         <f>'Q40 Coder 2'!$C37</f>
@@ -8652,7 +10397,7 @@
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8662,9 +10407,9 @@
       <c r="B38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="13" t="str">
         <f>'Q40 Coder 1'!$C38</f>
-        <v>0</v>
+        <v>UN</v>
       </c>
       <c r="D38" s="13">
         <f>'Q40 Coder 2'!$C38</f>
@@ -8672,7 +10417,7 @@
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8682,9 +10427,9 @@
       <c r="B39" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="13" t="str">
         <f>'Q40 Coder 1'!$C39</f>
-        <v>0</v>
+        <v>GV</v>
       </c>
       <c r="D39" s="13">
         <f>'Q40 Coder 2'!$C39</f>
@@ -8692,7 +10437,7 @@
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8702,9 +10447,9 @@
       <c r="B40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="13" t="str">
         <f>'Q40 Coder 1'!$C40</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D40" s="13">
         <f>'Q40 Coder 2'!$C40</f>
@@ -8712,7 +10457,7 @@
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8722,9 +10467,9 @@
       <c r="B41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="13" t="str">
         <f>'Q40 Coder 1'!$C41</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D41" s="13">
         <f>'Q40 Coder 2'!$C41</f>
@@ -8732,7 +10477,7 @@
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8742,9 +10487,9 @@
       <c r="B42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="13" t="str">
         <f>'Q40 Coder 1'!$C42</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D42" s="13">
         <f>'Q40 Coder 2'!$C42</f>
@@ -8752,7 +10497,7 @@
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8762,9 +10507,9 @@
       <c r="B43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="13" t="str">
         <f>'Q40 Coder 1'!$C43</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D43" s="13">
         <f>'Q40 Coder 2'!$C43</f>
@@ -8772,7 +10517,7 @@
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8782,9 +10527,9 @@
       <c r="B44" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="13" t="str">
         <f>'Q40 Coder 1'!$C44</f>
-        <v>0</v>
+        <v>FN</v>
       </c>
       <c r="D44" s="13">
         <f>'Q40 Coder 2'!$C44</f>
@@ -8792,7 +10537,7 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8802,9 +10547,9 @@
       <c r="B45" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="13" t="str">
         <f>'Q40 Coder 1'!$C45</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D45" s="13">
         <f>'Q40 Coder 2'!$C45</f>
@@ -8812,7 +10557,7 @@
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8822,9 +10567,9 @@
       <c r="B46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="13" t="str">
         <f>'Q40 Coder 1'!$C46</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D46" s="13">
         <f>'Q40 Coder 2'!$C46</f>
@@ -8832,7 +10577,7 @@
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8842,9 +10587,9 @@
       <c r="B47" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="13" t="str">
         <f>'Q40 Coder 1'!$C47</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D47" s="13">
         <f>'Q40 Coder 2'!$C47</f>
@@ -8852,7 +10597,7 @@
       </c>
       <c r="E47" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,9 +10607,9 @@
       <c r="B48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="13" t="str">
         <f>'Q40 Coder 1'!$C48</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D48" s="13">
         <f>'Q40 Coder 2'!$C48</f>
@@ -8872,7 +10617,7 @@
       </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8882,9 +10627,9 @@
       <c r="B49" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="13" t="str">
         <f>'Q40 Coder 1'!$C49</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D49" s="13">
         <f>'Q40 Coder 2'!$C49</f>
@@ -8892,7 +10637,7 @@
       </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8902,9 +10647,9 @@
       <c r="B50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="13" t="str">
         <f>'Q40 Coder 1'!$C50</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D50" s="13">
         <f>'Q40 Coder 2'!$C50</f>
@@ -8912,7 +10657,7 @@
       </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8922,9 +10667,9 @@
       <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="13" t="str">
         <f>'Q40 Coder 1'!$C51</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D51" s="13">
         <f>'Q40 Coder 2'!$C51</f>
@@ -8932,7 +10677,7 @@
       </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8942,9 +10687,9 @@
       <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="13" t="str">
         <f>'Q40 Coder 1'!$C52</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D52" s="13">
         <f>'Q40 Coder 2'!$C52</f>
@@ -8952,7 +10697,7 @@
       </c>
       <c r="E52" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8962,9 +10707,9 @@
       <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="13" t="str">
         <f>'Q40 Coder 1'!$C53</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D53" s="13">
         <f>'Q40 Coder 2'!$C53</f>
@@ -8972,7 +10717,7 @@
       </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8982,9 +10727,9 @@
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="13" t="str">
         <f>'Q40 Coder 1'!$C54</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D54" s="13">
         <f>'Q40 Coder 2'!$C54</f>
@@ -8992,7 +10737,7 @@
       </c>
       <c r="E54" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9002,9 +10747,9 @@
       <c r="B55" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="13" t="str">
         <f>'Q40 Coder 1'!$C55</f>
-        <v>0</v>
+        <v>OP</v>
       </c>
       <c r="D55" s="13">
         <f>'Q40 Coder 2'!$C55</f>
@@ -9012,7 +10757,7 @@
       </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -9022,9 +10767,9 @@
       <c r="B56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="13" t="str">
         <f>'Q40 Coder 1'!$C56</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D56" s="13">
         <f>'Q40 Coder 2'!$C56</f>
@@ -9032,7 +10777,7 @@
       </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -9042,9 +10787,9 @@
       <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="13" t="str">
         <f>'Q40 Coder 1'!$C57</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D57" s="13">
         <f>'Q40 Coder 2'!$C57</f>
@@ -9052,7 +10797,7 @@
       </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -9062,9 +10807,9 @@
       <c r="B58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="13" t="str">
         <f>'Q40 Coder 1'!$C58</f>
-        <v>0</v>
+        <v>FF</v>
       </c>
       <c r="D58" s="13">
         <f>'Q40 Coder 2'!$C58</f>
@@ -9072,7 +10817,7 @@
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -9082,9 +10827,9 @@
       <c r="B59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="13" t="str">
         <f>'Q40 Coder 1'!$C59</f>
-        <v>0</v>
+        <v>NR</v>
       </c>
       <c r="D59" s="13">
         <f>'Q40 Coder 2'!$C59</f>
@@ -9092,7 +10837,7 @@
       </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9102,9 +10847,9 @@
       <c r="B60" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="13" t="str">
         <f>'Q40 Coder 1'!$C60</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
       <c r="D60" s="13">
         <f>'Q40 Coder 2'!$C60</f>
@@ -9112,7 +10857,7 @@
       </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9127,9 +10872,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9157,7 +10902,9 @@
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9166,7 +10913,9 @@
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9175,7 +10924,9 @@
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -9184,7 +10935,9 @@
       <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9193,7 +10946,9 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9202,7 +10957,9 @@
       <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -9211,7 +10968,9 @@
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -9220,7 +10979,9 @@
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9229,7 +10990,9 @@
       <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -9238,7 +11001,9 @@
       <c r="B11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -9247,7 +11012,9 @@
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -9256,7 +11023,9 @@
       <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -9265,7 +11034,9 @@
       <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -9274,7 +11045,9 @@
       <c r="B15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -9283,7 +11056,9 @@
       <c r="B16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -9292,7 +11067,9 @@
       <c r="B17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -9301,7 +11078,9 @@
       <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -9310,7 +11089,9 @@
       <c r="B19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -9319,7 +11100,9 @@
       <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -9328,7 +11111,9 @@
       <c r="B21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -9337,7 +11122,9 @@
       <c r="B22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -9346,7 +11133,9 @@
       <c r="B23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -9355,7 +11144,9 @@
       <c r="B24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -9364,7 +11155,9 @@
       <c r="B25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -9373,7 +11166,9 @@
       <c r="B26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -9382,7 +11177,9 @@
       <c r="B27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -9391,7 +11188,9 @@
       <c r="B28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -9400,7 +11199,9 @@
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -9409,7 +11210,9 @@
       <c r="B30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -9418,7 +11221,9 @@
       <c r="B31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -9427,7 +11232,9 @@
       <c r="B32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -9436,7 +11243,9 @@
       <c r="B33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -9445,7 +11254,9 @@
       <c r="B34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -9454,7 +11265,9 @@
       <c r="B35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -9463,7 +11276,9 @@
       <c r="B36" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -9472,7 +11287,9 @@
       <c r="B37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -9481,7 +11298,9 @@
       <c r="B38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -9490,7 +11309,9 @@
       <c r="B39" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -9499,7 +11320,9 @@
       <c r="B40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -9508,7 +11331,9 @@
       <c r="B41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -9517,7 +11342,9 @@
       <c r="B42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -9526,7 +11353,9 @@
       <c r="B43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -9535,7 +11364,9 @@
       <c r="B44" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -9544,7 +11375,9 @@
       <c r="B45" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -9553,7 +11386,9 @@
       <c r="B46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -9562,7 +11397,9 @@
       <c r="B47" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -9571,7 +11408,9 @@
       <c r="B48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -9580,7 +11419,9 @@
       <c r="B49" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -9589,7 +11430,9 @@
       <c r="B50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -9598,7 +11441,9 @@
       <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -9607,7 +11452,9 @@
       <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -9616,7 +11463,9 @@
       <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -9625,7 +11474,9 @@
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -9634,7 +11485,9 @@
       <c r="B55" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="15" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -9643,7 +11496,9 @@
       <c r="B56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="15"/>
+      <c r="C56" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -9652,7 +11507,9 @@
       <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -9661,7 +11518,9 @@
       <c r="B58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -9670,7 +11529,9 @@
       <c r="B59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -9679,7 +11540,9 @@
       <c r="B60" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -9697,9 +11560,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FinalProject/Data/DataClean/SOC5800_Data_QualitativeAnalysis.xlsx
+++ b/FinalProject/Data/DataClean/SOC5800_Data_QualitativeAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="698" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="698" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Q38" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="326">
   <si>
     <t>responseID</t>
   </si>
@@ -1039,6 +1039,12 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2959,7 @@
       </c>
       <c r="D1" s="12" t="str">
         <f>'Q41 Coder 2'!$C1</f>
-        <v>Coder 2</v>
+        <v>NS</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>264</v>
@@ -4850,7 +4856,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,7 +4874,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5537,8 +5543,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8500,9 +8506,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9642,7 +9648,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -9663,11 +9669,11 @@
       </c>
       <c r="C1" s="12" t="str">
         <f>'Q40 Coder 1'!$C1</f>
-        <v>Coder 1</v>
+        <v>DF</v>
       </c>
       <c r="D1" s="12" t="str">
         <f>'Q40 Coder 2'!$C1</f>
-        <v>Coder 2</v>
+        <v>MT</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>264</v>
@@ -10892,7 +10898,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11562,7 +11568,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11580,7 +11586,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
